--- a/media/testzz_XqCNRXJ.xlsx
+++ b/media/testzz_XqCNRXJ.xlsx
@@ -1,263 +1,184 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9420"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="18468" windowHeight="9420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
-  <si>
-    <t>测试用例Demo</t>
-  </si>
-  <si>
-    <t>编号</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>参数</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>url=http://www.baidu.com</t>
-  </si>
-  <si>
-    <t>访问url</t>
-  </si>
-  <si>
-    <t>name=xpath;value=//input[@id="kw"];txt=虚竹修改</t>
-  </si>
-  <si>
-    <t>输入</t>
-  </si>
-  <si>
-    <t>click</t>
-  </si>
-  <si>
-    <t>name=id;value=su</t>
-  </si>
-  <si>
-    <t>点击</t>
-  </si>
-  <si>
-    <t>wait</t>
-  </si>
-  <si>
-    <t>time_=3</t>
-  </si>
-  <si>
-    <t>等待3秒</t>
-  </si>
-  <si>
-    <t>操作手册</t>
-  </si>
-  <si>
-    <t>强制等待指定的time_时间周期;以秒为单位</t>
-  </si>
-  <si>
-    <t>示例：</t>
-  </si>
-  <si>
-    <t>操作行为</t>
-  </si>
-  <si>
-    <t>对基于name与value定位到的页面元素;进行传入txt文本的操作;不同的参数以';'进行分割</t>
-  </si>
-  <si>
-    <t>name=id;value=kw;txt=虚竹修改</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="21">
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color indexed="8"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -557,159 +478,159 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -763,11 +684,74 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1027,200 +1011,272 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="2" max="2" width="18.2" style="1" customWidth="1"/>
+    <col width="18.2" customWidth="1" style="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>测试用例Demo</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>编号</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>input</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>参数</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>描述</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>Chrome</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>url=http://www.baidu.com</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>访问url</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>input</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>name=xpath;value=//input[@id="kw"];txt=虚竹修改</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>输入</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>name=id;value=su</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>点击</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7"/>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>22</v>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>time_=3</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>等待3秒</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="0" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>操作手册</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>强制等待指定的time_时间周期;以秒为单位</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>示例：</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>操作行为</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>参数</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>time_=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>input</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>对基于name与value定位到的页面元素;进行传入txt文本的操作;不同的参数以';'进行分割</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>示例：</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>操作行为</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>参数</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>input</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>name=id;value=kw;txt=虚竹修改</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.6"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.6"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/media/testzz_XqCNRXJ.xlsx
+++ b/media/testzz_XqCNRXJ.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
-  <si>
-    <t>测试用例Demo</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+  <si>
+    <t>测试系统</t>
   </si>
   <si>
     <t>编号</t>
@@ -33,7 +33,7 @@
     <t>描述</t>
   </si>
   <si>
-    <t>Chrome</t>
+    <t>测试功能点</t>
   </si>
   <si>
     <t>open</t>
@@ -45,6 +45,9 @@
     <t>访问url</t>
   </si>
   <si>
+    <t>登录搜索</t>
+  </si>
+  <si>
     <t>name=xpath;value=//input[@id="kw"];txt=虚竹修改</t>
   </si>
   <si>
@@ -67,12 +70,6 @@
   </si>
   <si>
     <t>等待3秒</t>
-  </si>
-  <si>
-    <t>操作手册</t>
-  </si>
-  <si>
-    <t>强制等待指定的time_时间周期;以秒为单位</t>
   </si>
   <si>
     <t>示例：</t>
@@ -92,10 +89,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -104,6 +101,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -113,6 +133,59 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -126,73 +199,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -219,6 +225,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -232,24 +245,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -264,12 +261,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -282,13 +351,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,7 +387,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,139 +441,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,6 +452,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -475,9 +481,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,17 +552,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -563,10 +560,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -575,16 +572,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
@@ -593,123 +590,126 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1032,18 +1032,25 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="18.2" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.6" customWidth="1"/>
+    <col min="4" max="4" width="13.9" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
@@ -1062,7 +1069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1075,8 +1082,11 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1084,64 +1094,69 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7"/>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
+    <row r="8" spans="2:2">
+      <c r="B8"/>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9"/>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10"/>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
@@ -1149,10 +1164,10 @@
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1160,17 +1175,17 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
@@ -1181,10 +1196,13 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
